--- a/Outputs/Points2016ABBLeague.xlsx
+++ b/Outputs/Points2016ABBLeague.xlsx
@@ -688,10 +688,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$J$29</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -712,16 +712,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$30:$J$30</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$30:$K$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>340.85710629790253</c:v>
                 </c:pt>
@@ -742,6 +745,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>350.23938619269848</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>352.59360223444924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -793,10 +799,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$J$29</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -817,16 +823,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$31:$J$31</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$31:$K$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>282.92812941161912</c:v>
                 </c:pt>
@@ -847,6 +856,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>300.96897393221843</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>314.61156620128281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,10 +910,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$J$29</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -922,16 +934,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$32:$J$32</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$32:$K$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>284.76669610620939</c:v>
                 </c:pt>
@@ -952,6 +967,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>298.07510649188373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>308.04864723757584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,10 +1021,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$J$29</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1027,16 +1045,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$33:$J$33</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$33:$K$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>284.64873965543939</c:v>
                 </c:pt>
@@ -1057,6 +1078,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>276.86235262133624</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>273.40490606921242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,7 +1101,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>saving kelce</c:v>
+                  <c:v>abusement park</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1108,10 +1132,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$J$29</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1132,36 +1156,42 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$34:$J$34</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$34:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>269.90790969663817</c:v>
+                  <c:v>262.91345988327112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>264.88020899349442</c:v>
+                  <c:v>263.3657045279474</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>257.37737967992138</c:v>
+                  <c:v>257.98789163722637</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>261.01389022424803</c:v>
+                  <c:v>249.17161130636543</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>281.69862813917041</c:v>
+                  <c:v>242.92552028073072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>285.80678981102756</c:v>
+                  <c:v>242.88794369572042</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>276.286429667363</c:v>
+                  <c:v>262.11181455713256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>270.25456849838952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1182,7 +1212,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>team tiny squirts</c:v>
+                  <c:v>saving kelce</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1213,10 +1243,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$J$29</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1237,36 +1267,42 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$35:$J$35</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$35:$K$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>258.4382746208629</c:v>
+                  <c:v>269.90790969663817</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>258.62388197769167</c:v>
+                  <c:v>264.88020899349442</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>280.03060121716464</c:v>
+                  <c:v>257.37737967992138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>279.78785784061199</c:v>
+                  <c:v>261.01389022424803</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>278.59469626930189</c:v>
+                  <c:v>281.69862813917041</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>256.27128486591062</c:v>
+                  <c:v>285.80678981102756</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>264.4963856224681</c:v>
+                  <c:v>276.286429667363</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>262.62314369902487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1287,7 +1323,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gurley gates</c:v>
+                  <c:v>team tiny squirts</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1324,10 +1360,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$J$29</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1348,36 +1384,42 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$36:$J$36</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$36:$K$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>260.30857226782501</c:v>
+                  <c:v>258.4382746208629</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>248.65371721411316</c:v>
+                  <c:v>258.62388197769167</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>264.66608400942431</c:v>
+                  <c:v>280.03060121716464</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>263.318231563621</c:v>
+                  <c:v>279.78785784061199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>273.2449422805704</c:v>
+                  <c:v>278.59469626930189</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>259.8438248489681</c:v>
+                  <c:v>256.27128486591062</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>263.75039685454226</c:v>
+                  <c:v>264.4963856224681</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>258.29730012983561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1398,7 +1440,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>abusement park</c:v>
+                  <c:v>gurley gates</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1435,10 +1477,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$J$29</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1459,36 +1501,42 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$37:$J$37</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$37:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>262.91345988327112</c:v>
+                  <c:v>260.30857226782501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>263.3657045279474</c:v>
+                  <c:v>248.65371721411316</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>257.98789163722637</c:v>
+                  <c:v>264.66608400942431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>249.17161130636543</c:v>
+                  <c:v>263.318231563621</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>242.92552028073072</c:v>
+                  <c:v>273.2449422805704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>242.88794369572042</c:v>
+                  <c:v>259.8438248489681</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>262.11181455713256</c:v>
+                  <c:v>263.75039685454226</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>254.21805974596089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1546,10 +1594,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$J$29</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1570,16 +1618,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$38:$J$38</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$38:$K$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>274.6070870653374</c:v>
                 </c:pt>
@@ -1600,6 +1651,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>249.71448434343478</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>249.24597199900904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1620,7 +1674,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>team fleming</c:v>
+                  <c:v>And I was like …</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1657,10 +1711,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$J$29</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1681,36 +1735,42 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$39:$J$39</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$39:$K$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>234.58765869368261</c:v>
+                  <c:v>249.8179204467919</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>224.25886024308511</c:v>
+                  <c:v>239.44792865702573</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>287.91750509400759</c:v>
+                  <c:v>239.61562075114958</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>280.76721671508642</c:v>
+                  <c:v>234.62138810378514</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>275.93454205631764</c:v>
+                  <c:v>236.91942465872859</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>251.72344362721435</c:v>
+                  <c:v>230.50912240979534</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>247.11823087206443</c:v>
+                  <c:v>232.66783665761585</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>234.01027046425196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1731,7 +1791,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>And I was like …</c:v>
+                  <c:v>team fleming</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1768,10 +1828,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$J$29</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1792,36 +1852,42 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$40:$J$40</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$40:$K$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>249.8179204467919</c:v>
+                  <c:v>234.58765869368261</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>239.44792865702573</c:v>
+                  <c:v>224.25886024308511</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>239.61562075114958</c:v>
+                  <c:v>287.91750509400759</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>234.62138810378514</c:v>
+                  <c:v>280.76721671508642</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>236.91942465872859</c:v>
+                  <c:v>275.93454205631764</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>230.50912240979534</c:v>
+                  <c:v>251.72344362721435</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>232.66783665761585</c:v>
+                  <c:v>247.11823087206443</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>232.31169431596612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1879,10 +1945,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$J$29</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$29:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1903,16 +1969,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Points2016weeks9maxpointsFalse2!$D$41:$J$41</c:f>
+              <c:f>Points2016weeks9maxpointsFalse2!$D$41:$K$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>270.64140203941184</c:v>
                 </c:pt>
@@ -1933,6 +2002,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>223.97779688580613</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>221.9288660534184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2702,16 +2774,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>385762</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>149542</xdr:rowOff>
+      <xdr:rowOff>120967</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3030,23 +3102,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="7" width="9.140625" customWidth="1"/>
+    <col min="3" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3077,8 +3149,11 @@
       <c r="K2">
         <v>9</v>
       </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -3110,10 +3185,13 @@
         <v>137</v>
       </c>
       <c r="L3">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="M3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -3145,10 +3223,13 @@
         <v>116.8</v>
       </c>
       <c r="L4">
+        <v>118.1</v>
+      </c>
+      <c r="M4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -3180,10 +3261,13 @@
         <v>117.1</v>
       </c>
       <c r="L5">
+        <v>119.4</v>
+      </c>
+      <c r="M5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -3215,10 +3299,13 @@
         <v>140</v>
       </c>
       <c r="L6">
+        <v>105.8</v>
+      </c>
+      <c r="M6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -3250,10 +3337,13 @@
         <v>151.9</v>
       </c>
       <c r="L7">
+        <v>136.9</v>
+      </c>
+      <c r="M7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -3285,10 +3375,13 @@
         <v>84.1</v>
       </c>
       <c r="L8">
+        <v>63.5</v>
+      </c>
+      <c r="M8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3320,10 +3413,13 @@
         <v>185.7</v>
       </c>
       <c r="L9">
+        <v>178</v>
+      </c>
+      <c r="M9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -3355,10 +3451,13 @@
         <v>120.4</v>
       </c>
       <c r="L10">
+        <v>137.5</v>
+      </c>
+      <c r="M10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -3390,10 +3489,13 @@
         <v>112.5</v>
       </c>
       <c r="L11">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="M11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -3425,10 +3527,13 @@
         <v>147.30000000000001</v>
       </c>
       <c r="L12">
+        <v>112.6</v>
+      </c>
+      <c r="M12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -3460,10 +3565,13 @@
         <v>31.9</v>
       </c>
       <c r="L13">
+        <v>85.6</v>
+      </c>
+      <c r="M13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -3495,10 +3603,13 @@
         <v>106.6</v>
       </c>
       <c r="L14">
+        <v>120.9</v>
+      </c>
+      <c r="M14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3523,10 +3634,13 @@
       <c r="K15">
         <v>9</v>
       </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>RANK(K16,$K$16:$K$27,FALSE)</f>
+        <f>RANK(L16,$L$16:$L$27,FALSE)</f>
         <v>2</v>
       </c>
       <c r="B16" t="s">
@@ -3560,11 +3674,15 @@
         <f>AVERAGE($C3:K3)+STDEV($C3:K3)/AVERAGE($C3:K3)*AVERAGE($C$3:K$14)+AVERAGE(I3:K3)</f>
         <v>300.96897393221843</v>
       </c>
+      <c r="L16">
+        <f>AVERAGE($C3:L3)+STDEV($C3:L3)/AVERAGE($C3:L3)*AVERAGE($C$3:L$14)+AVERAGE(J3:L3)</f>
+        <v>314.61156620128281</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" ref="A17:A27" si="0">RANK(K17,$K$16:$K$27,FALSE)</f>
-        <v>5</v>
+        <f t="shared" ref="A17:A27" si="0">RANK(L17,$L$16:$L$27,FALSE)</f>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -3597,8 +3715,12 @@
         <f>AVERAGE($C4:K4)+STDEV($C4:K4)/AVERAGE($C4:K4)*AVERAGE($C$3:K$14)+AVERAGE(I4:K4)</f>
         <v>276.286429667363</v>
       </c>
+      <c r="L17">
+        <f>AVERAGE($C4:L4)+STDEV($C4:L4)/AVERAGE($C4:L4)*AVERAGE($C$3:L$14)+AVERAGE(J4:L4)</f>
+        <v>262.62314369902487</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3634,11 +3756,15 @@
         <f>AVERAGE($C5:K5)+STDEV($C5:K5)/AVERAGE($C5:K5)*AVERAGE($C$3:K$14)+AVERAGE(I5:K5)</f>
         <v>249.71448434343478</v>
       </c>
+      <c r="L18">
+        <f>AVERAGE($C5:L5)+STDEV($C5:L5)/AVERAGE($C5:L5)*AVERAGE($C$3:L$14)+AVERAGE(J5:L5)</f>
+        <v>249.24597199900904</v>
+      </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -3671,11 +3797,15 @@
         <f>AVERAGE($C6:K6)+STDEV($C6:K6)/AVERAGE($C6:K6)*AVERAGE($C$3:K$14)+AVERAGE(I6:K6)</f>
         <v>263.75039685454226</v>
       </c>
+      <c r="L19">
+        <f>AVERAGE($C6:L6)+STDEV($C6:L6)/AVERAGE($C6:L6)*AVERAGE($C$3:L$14)+AVERAGE(J6:L6)</f>
+        <v>254.21805974596089</v>
+      </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -3708,11 +3838,15 @@
         <f>AVERAGE($C7:K7)+STDEV($C7:K7)/AVERAGE($C7:K7)*AVERAGE($C$3:K$14)+AVERAGE(I7:K7)</f>
         <v>262.11181455713256</v>
       </c>
+      <c r="L20">
+        <f>AVERAGE($C7:L7)+STDEV($C7:L7)/AVERAGE($C7:L7)*AVERAGE($C$3:L$14)+AVERAGE(J7:L7)</f>
+        <v>270.25456849838952</v>
+      </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -3745,8 +3879,12 @@
         <f>AVERAGE($C8:K8)+STDEV($C8:K8)/AVERAGE($C8:K8)*AVERAGE($C$3:K$14)+AVERAGE(I8:K8)</f>
         <v>247.11823087206443</v>
       </c>
+      <c r="L21">
+        <f>AVERAGE($C8:L8)+STDEV($C8:L8)/AVERAGE($C8:L8)*AVERAGE($C$3:L$14)+AVERAGE(J8:L8)</f>
+        <v>232.31169431596612</v>
+      </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3782,8 +3920,12 @@
         <f>AVERAGE($C9:K9)+STDEV($C9:K9)/AVERAGE($C9:K9)*AVERAGE($C$3:K$14)+AVERAGE(I9:K9)</f>
         <v>350.23938619269848</v>
       </c>
+      <c r="L22">
+        <f>AVERAGE($C9:L9)+STDEV($C9:L9)/AVERAGE($C9:L9)*AVERAGE($C$3:L$14)+AVERAGE(J9:L9)</f>
+        <v>352.59360223444924</v>
+      </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3819,8 +3961,12 @@
         <f>AVERAGE($C10:K10)+STDEV($C10:K10)/AVERAGE($C10:K10)*AVERAGE($C$3:K$14)+AVERAGE(I10:K10)</f>
         <v>298.07510649188373</v>
       </c>
+      <c r="L23">
+        <f>AVERAGE($C10:L10)+STDEV($C10:L10)/AVERAGE($C10:L10)*AVERAGE($C$3:L$14)+AVERAGE(J10:L10)</f>
+        <v>308.04864723757584</v>
+      </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3856,11 +4002,15 @@
         <f>AVERAGE($C11:K11)+STDEV($C11:K11)/AVERAGE($C11:K11)*AVERAGE($C$3:K$14)+AVERAGE(I11:K11)</f>
         <v>276.86235262133624</v>
       </c>
+      <c r="L24">
+        <f>AVERAGE($C11:L11)+STDEV($C11:L11)/AVERAGE($C11:L11)*AVERAGE($C$3:L$14)+AVERAGE(J11:L11)</f>
+        <v>273.40490606921242</v>
+      </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -3893,8 +4043,12 @@
         <f>AVERAGE($C12:K12)+STDEV($C12:K12)/AVERAGE($C12:K12)*AVERAGE($C$3:K$14)+AVERAGE(I12:K12)</f>
         <v>264.4963856224681</v>
       </c>
+      <c r="L25">
+        <f>AVERAGE($C12:L12)+STDEV($C12:L12)/AVERAGE($C12:L12)*AVERAGE($C$3:L$14)+AVERAGE(J12:L12)</f>
+        <v>258.29730012983561</v>
+      </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3930,11 +4084,15 @@
         <f>AVERAGE($C13:K13)+STDEV($C13:K13)/AVERAGE($C13:K13)*AVERAGE($C$3:K$14)+AVERAGE(I13:K13)</f>
         <v>223.97779688580613</v>
       </c>
+      <c r="L26">
+        <f>AVERAGE($C13:L13)+STDEV($C13:L13)/AVERAGE($C13:L13)*AVERAGE($C$3:L$14)+AVERAGE(J13:L13)</f>
+        <v>221.9288660534184</v>
+      </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
@@ -3967,8 +4125,12 @@
         <f>AVERAGE($C14:K14)+STDEV($C14:K14)/AVERAGE($C14:K14)*AVERAGE($C$3:K$14)+AVERAGE(I14:K14)</f>
         <v>232.66783665761585</v>
       </c>
+      <c r="L27">
+        <f>AVERAGE($C14:L14)+STDEV($C14:L14)/AVERAGE($C14:L14)*AVERAGE($C$3:L$14)+AVERAGE(J14:L14)</f>
+        <v>234.01027046425196</v>
+      </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -3997,7 +4159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>1</v>
       </c>
@@ -4033,8 +4195,12 @@
         <f>VLOOKUP($B30,$A$16:$K$27,11,FALSE)</f>
         <v>350.23938619269848</v>
       </c>
+      <c r="K30">
+        <f>VLOOKUP($B30,$A$16:$L$27,12,FALSE)</f>
+        <v>352.59360223444924</v>
+      </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>2</v>
       </c>
@@ -4067,11 +4233,15 @@
         <v>275.83495095839299</v>
       </c>
       <c r="J31">
-        <f t="shared" ref="J31:J41" si="8">VLOOKUP($B31,$A$16:$K$27,11,FALSE)</f>
+        <f t="shared" ref="J31:K41" si="8">VLOOKUP($B31,$A$16:$K$27,11,FALSE)</f>
         <v>300.96897393221843</v>
       </c>
+      <c r="K31">
+        <f t="shared" ref="K31:K41" si="9">VLOOKUP($B31,$A$16:$L$27,12,FALSE)</f>
+        <v>314.61156620128281</v>
+      </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>3</v>
       </c>
@@ -4107,8 +4277,12 @@
         <f t="shared" si="8"/>
         <v>298.07510649188373</v>
       </c>
+      <c r="K32">
+        <f t="shared" si="9"/>
+        <v>308.04864723757584</v>
+      </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>4</v>
       </c>
@@ -4144,156 +4318,176 @@
         <f t="shared" si="8"/>
         <v>276.86235262133624</v>
       </c>
+      <c r="K33">
+        <f t="shared" si="9"/>
+        <v>273.40490606921242</v>
+      </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>5</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="1"/>
-        <v>saving kelce</v>
+        <v>abusement park</v>
       </c>
       <c r="D34">
         <f t="shared" si="2"/>
-        <v>269.90790969663817</v>
+        <v>262.91345988327112</v>
       </c>
       <c r="E34">
         <f t="shared" si="3"/>
-        <v>264.88020899349442</v>
+        <v>263.3657045279474</v>
       </c>
       <c r="F34">
         <f t="shared" si="4"/>
-        <v>257.37737967992138</v>
+        <v>257.98789163722637</v>
       </c>
       <c r="G34">
         <f t="shared" si="5"/>
-        <v>261.01389022424803</v>
+        <v>249.17161130636543</v>
       </c>
       <c r="H34">
         <f t="shared" si="6"/>
-        <v>281.69862813917041</v>
+        <v>242.92552028073072</v>
       </c>
       <c r="I34">
         <f t="shared" si="7"/>
-        <v>285.80678981102756</v>
+        <v>242.88794369572042</v>
       </c>
       <c r="J34">
         <f t="shared" si="8"/>
-        <v>276.286429667363</v>
+        <v>262.11181455713256</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="9"/>
+        <v>270.25456849838952</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>6</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="1"/>
-        <v>team tiny squirts</v>
+        <v>saving kelce</v>
       </c>
       <c r="D35">
         <f t="shared" si="2"/>
-        <v>258.4382746208629</v>
+        <v>269.90790969663817</v>
       </c>
       <c r="E35">
         <f t="shared" si="3"/>
-        <v>258.62388197769167</v>
+        <v>264.88020899349442</v>
       </c>
       <c r="F35">
         <f t="shared" si="4"/>
-        <v>280.03060121716464</v>
+        <v>257.37737967992138</v>
       </c>
       <c r="G35">
         <f t="shared" si="5"/>
-        <v>279.78785784061199</v>
+        <v>261.01389022424803</v>
       </c>
       <c r="H35">
         <f t="shared" si="6"/>
-        <v>278.59469626930189</v>
+        <v>281.69862813917041</v>
       </c>
       <c r="I35">
         <f t="shared" si="7"/>
-        <v>256.27128486591062</v>
+        <v>285.80678981102756</v>
       </c>
       <c r="J35">
         <f t="shared" si="8"/>
-        <v>264.4963856224681</v>
+        <v>276.286429667363</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="9"/>
+        <v>262.62314369902487</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>7</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="1"/>
-        <v>gurley gates</v>
+        <v>team tiny squirts</v>
       </c>
       <c r="D36">
         <f t="shared" si="2"/>
-        <v>260.30857226782501</v>
+        <v>258.4382746208629</v>
       </c>
       <c r="E36">
         <f t="shared" si="3"/>
-        <v>248.65371721411316</v>
+        <v>258.62388197769167</v>
       </c>
       <c r="F36">
         <f t="shared" si="4"/>
-        <v>264.66608400942431</v>
+        <v>280.03060121716464</v>
       </c>
       <c r="G36">
         <f t="shared" si="5"/>
-        <v>263.318231563621</v>
+        <v>279.78785784061199</v>
       </c>
       <c r="H36">
         <f t="shared" si="6"/>
-        <v>273.2449422805704</v>
+        <v>278.59469626930189</v>
       </c>
       <c r="I36">
         <f t="shared" si="7"/>
-        <v>259.8438248489681</v>
+        <v>256.27128486591062</v>
       </c>
       <c r="J36">
         <f t="shared" si="8"/>
-        <v>263.75039685454226</v>
+        <v>264.4963856224681</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="9"/>
+        <v>258.29730012983561</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>8</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="1"/>
-        <v>abusement park</v>
+        <v>gurley gates</v>
       </c>
       <c r="D37">
         <f t="shared" si="2"/>
-        <v>262.91345988327112</v>
+        <v>260.30857226782501</v>
       </c>
       <c r="E37">
         <f t="shared" si="3"/>
-        <v>263.3657045279474</v>
+        <v>248.65371721411316</v>
       </c>
       <c r="F37">
         <f t="shared" si="4"/>
-        <v>257.98789163722637</v>
+        <v>264.66608400942431</v>
       </c>
       <c r="G37">
         <f t="shared" si="5"/>
-        <v>249.17161130636543</v>
+        <v>263.318231563621</v>
       </c>
       <c r="H37">
         <f t="shared" si="6"/>
-        <v>242.92552028073072</v>
+        <v>273.2449422805704</v>
       </c>
       <c r="I37">
         <f t="shared" si="7"/>
-        <v>242.88794369572042</v>
+        <v>259.8438248489681</v>
       </c>
       <c r="J37">
         <f t="shared" si="8"/>
-        <v>262.11181455713256</v>
+        <v>263.75039685454226</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="9"/>
+        <v>254.21805974596089</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>9</v>
       </c>
@@ -4329,82 +4523,94 @@
         <f t="shared" si="8"/>
         <v>249.71448434343478</v>
       </c>
+      <c r="K38">
+        <f t="shared" si="9"/>
+        <v>249.24597199900904</v>
+      </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>10</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="1"/>
-        <v>team fleming</v>
+        <v>And I was like …</v>
       </c>
       <c r="D39">
         <f t="shared" si="2"/>
-        <v>234.58765869368261</v>
+        <v>249.8179204467919</v>
       </c>
       <c r="E39">
         <f t="shared" si="3"/>
-        <v>224.25886024308511</v>
+        <v>239.44792865702573</v>
       </c>
       <c r="F39">
         <f t="shared" si="4"/>
-        <v>287.91750509400759</v>
+        <v>239.61562075114958</v>
       </c>
       <c r="G39">
         <f t="shared" si="5"/>
-        <v>280.76721671508642</v>
+        <v>234.62138810378514</v>
       </c>
       <c r="H39">
         <f t="shared" si="6"/>
-        <v>275.93454205631764</v>
+        <v>236.91942465872859</v>
       </c>
       <c r="I39">
         <f t="shared" si="7"/>
-        <v>251.72344362721435</v>
+        <v>230.50912240979534</v>
       </c>
       <c r="J39">
         <f t="shared" si="8"/>
-        <v>247.11823087206443</v>
+        <v>232.66783665761585</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="9"/>
+        <v>234.01027046425196</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>11</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="1"/>
-        <v>And I was like …</v>
+        <v>team fleming</v>
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
-        <v>249.8179204467919</v>
+        <v>234.58765869368261</v>
       </c>
       <c r="E40">
         <f t="shared" si="3"/>
-        <v>239.44792865702573</v>
+        <v>224.25886024308511</v>
       </c>
       <c r="F40">
         <f t="shared" si="4"/>
-        <v>239.61562075114958</v>
+        <v>287.91750509400759</v>
       </c>
       <c r="G40">
         <f t="shared" si="5"/>
-        <v>234.62138810378514</v>
+        <v>280.76721671508642</v>
       </c>
       <c r="H40">
         <f t="shared" si="6"/>
-        <v>236.91942465872859</v>
+        <v>275.93454205631764</v>
       </c>
       <c r="I40">
         <f t="shared" si="7"/>
-        <v>230.50912240979534</v>
+        <v>251.72344362721435</v>
       </c>
       <c r="J40">
         <f t="shared" si="8"/>
-        <v>232.66783665761585</v>
+        <v>247.11823087206443</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="9"/>
+        <v>232.31169431596612</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>12</v>
       </c>
@@ -4439,6 +4645,10 @@
       <c r="J41">
         <f t="shared" si="8"/>
         <v>223.97779688580613</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="9"/>
+        <v>221.9288660534184</v>
       </c>
     </row>
   </sheetData>
